--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/Desktop/stremlit_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C893D007-A769-B14C-B19A-11E29A19FF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DCC09A-7525-E444-AEBD-D864303B035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25500" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25500" windowHeight="15540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="五段階心理的質問" sheetId="1" r:id="rId1"/>
@@ -40187,7 +40187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -60280,7 +60280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
